--- a/114碩士論文時程規劃_陳勝誠.xlsx
+++ b/114碩士論文時程規劃_陳勝誠.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\論文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB5058-19C9-44FF-B71F-0B317CE861CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4564656-10E3-409E-A790-C6ED5764054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>里程碑</t>
   </si>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    1.1.3 交叉驗證 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    2.1.1 研究動機與目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +241,14 @@
   </si>
   <si>
     <t xml:space="preserve">    2.2.1 文獻探討</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1.4 交叉驗證 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1.3 調整CVAE的訓練</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" hidden="1" customWidth="1"/>
@@ -662,7 +666,7 @@
     <col min="21" max="21" width="14" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -727,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -754,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -778,7 +782,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -789,10 +793,10 @@
         <v>45934</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -806,7 +810,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -818,9 +822,9 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -834,17 +838,17 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -858,22 +862,18 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45935</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45948</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -886,19 +886,19 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3">
-        <v>45942</v>
+        <v>45935</v>
       </c>
       <c r="C8" s="3">
-        <v>45955</v>
+        <v>45948</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -914,19 +914,23 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45942</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45955</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -938,19 +942,19 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -962,16 +966,12 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45921</v>
-      </c>
-      <c r="C11" s="3">
-        <v>46021</v>
-      </c>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -989,17 +989,18 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45921</v>
+      </c>
+      <c r="C12" s="3">
+        <v>46021</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1016,10 +1017,14 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="U12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1041,14 +1046,14 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1065,14 +1070,14 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1089,14 +1094,14 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1113,18 +1118,18 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1137,19 +1142,19 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1161,9 +1166,9 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1172,9 +1177,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1185,9 +1190,9 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1209,9 +1214,9 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1221,8 +1226,8 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1233,7 +1238,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1257,7 +1262,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1270,8 +1275,8 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -1281,7 +1286,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1305,7 +1310,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1334,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1362,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1381,7 +1386,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1410,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1464,7 +1469,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1493,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1543,7 +1548,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
